--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-448083.1397647003</v>
+        <v>-450940.9520840391</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9777368.694373129</v>
+        <v>9777368.694373144</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13465584.92764814</v>
+        <v>13465584.92764813</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>205.8043738637564</v>
+        <v>353.7154875487431</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>28.13620944752011</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.60564476255257</v>
+        <v>128.7835007017903</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>274.3381105280094</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>15.94830397803287</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>42.93165166918606</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>34.05110737787441</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>101.8125974573153</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>20.06758344078563</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>71.27833349215649</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>224.9913792784366</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>26.10534953102086</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6698462129804</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.8676496898807</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>93.06273046388817</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045438</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561467</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T15" t="n">
         <v>188.3907690366107</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,7 +1780,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584591</v>
+        <v>137.5824211930845</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>212.4786004675396</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561467</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>2.119387955697774</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>159.4359999926172</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561467</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>42.51029296932446</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.8045767444093</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>179.7839631298885</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045447</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060082041</v>
+        <v>84.61259060081983</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2409,10 +2409,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>134.4224477376698</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561474</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952166</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>66.74877385785163</v>
+        <v>70.63505245096729</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440949</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584592</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627619</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>177.8809453463104</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>93.62264337260697</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>74.99129529219111</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417124</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1031.077791139709</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C2" t="n">
-        <v>823.1945852167225</v>
+        <v>858.5929021122818</v>
       </c>
       <c r="D2" t="n">
-        <v>464.928886609972</v>
+        <v>500.3272035055313</v>
       </c>
       <c r="E2" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1031.077791139709</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y4" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1141.74974582317</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C5" t="n">
-        <v>1141.74974582317</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696253</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>478.852290671381</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2681.039693060613</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2349.976805717043</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1997.208150446929</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>1623.742392185849</v>
       </c>
       <c r="Y5" t="n">
-        <v>1528.349585887292</v>
+        <v>1233.603060210037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,25 +4650,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1406.118858921979</v>
+        <v>777.3160057778007</v>
       </c>
       <c r="C8" t="n">
-        <v>1037.156341981567</v>
+        <v>408.353488837389</v>
       </c>
       <c r="D8" t="n">
-        <v>1037.156341981567</v>
+        <v>408.353488837389</v>
       </c>
       <c r="E8" t="n">
-        <v>651.3680893833227</v>
+        <v>408.353488837389</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>401.4079880881855</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1796.25819089779</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1406.118858921979</v>
+        <v>777.3160057778007</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>272.8312459770187</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8649647332663</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6913543878343</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>272.8312459770187</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>272.8312459770187</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>433.4288473033711</v>
       </c>
       <c r="H11" t="n">
-        <v>135.8452469121384</v>
+        <v>135.8452469121383</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>450.1331281309855</v>
+        <v>282.7274791106325</v>
       </c>
       <c r="K11" t="n">
-        <v>783.9525018208319</v>
+        <v>616.546852800479</v>
       </c>
       <c r="L11" t="n">
-        <v>1234.986715069241</v>
+        <v>1481.065668453834</v>
       </c>
       <c r="M11" t="n">
-        <v>2213.537017899069</v>
+        <v>2459.615971283662</v>
       </c>
       <c r="N11" t="n">
-        <v>3193.289290125716</v>
+        <v>3439.368243510309</v>
       </c>
       <c r="O11" t="n">
-        <v>3780.147772157385</v>
+        <v>3990.33961291069</v>
       </c>
       <c r="P11" t="n">
-        <v>4174.922138514563</v>
+        <v>4385.113979267868</v>
       </c>
       <c r="Q11" t="n">
-        <v>4633.400341023551</v>
+        <v>4633.40034102355</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S11" t="n">
-        <v>4582.126739107448</v>
+        <v>4666.048367650028</v>
       </c>
       <c r="T11" t="n">
-        <v>4376.14899149167</v>
+        <v>4460.07062003425</v>
       </c>
       <c r="U11" t="n">
-        <v>4122.618514765507</v>
+        <v>4206.540143308087</v>
       </c>
       <c r="V11" t="n">
         <v>3875.477255964517</v>
@@ -5109,31 +5109,31 @@
         <v>339.7206342795828</v>
       </c>
       <c r="G12" t="n">
-        <v>203.3575341122016</v>
+        <v>203.3575341122014</v>
       </c>
       <c r="H12" t="n">
-        <v>112.8556397500691</v>
+        <v>112.8556397500688</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>187.5256176422238</v>
+        <v>187.5256176422244</v>
       </c>
       <c r="K12" t="n">
-        <v>425.7898166225707</v>
+        <v>425.7898166225714</v>
       </c>
       <c r="L12" t="n">
-        <v>792.487976935236</v>
+        <v>792.4879769352365</v>
       </c>
       <c r="M12" t="n">
         <v>1239.764302157552</v>
       </c>
       <c r="N12" t="n">
-        <v>1713.287345712006</v>
+        <v>1713.287345712007</v>
       </c>
       <c r="O12" t="n">
-        <v>2124.248625130061</v>
+        <v>2124.248625130062</v>
       </c>
       <c r="P12" t="n">
         <v>2434.748216606165</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1021.624234979576</v>
+        <v>480.9582404759911</v>
       </c>
       <c r="C13" t="n">
-        <v>852.6880520516696</v>
+        <v>480.9582404759911</v>
       </c>
       <c r="D13" t="n">
-        <v>702.5714126393339</v>
+        <v>480.9582404759911</v>
       </c>
       <c r="E13" t="n">
-        <v>554.6583190569407</v>
+        <v>480.9582404759911</v>
       </c>
       <c r="F13" t="n">
-        <v>407.7683715590304</v>
+        <v>334.0682929780808</v>
       </c>
       <c r="G13" t="n">
         <v>240.0655349337493</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
         <v>138.9709805985426</v>
       </c>
       <c r="K13" t="n">
-        <v>342.9581635474189</v>
+        <v>342.958163547419</v>
       </c>
       <c r="L13" t="n">
-        <v>659.517961995915</v>
+        <v>659.5179619959151</v>
       </c>
       <c r="M13" t="n">
         <v>1003.675007595464</v>
@@ -5215,34 +5215,34 @@
         <v>1644.412983221742</v>
       </c>
       <c r="P13" t="n">
-        <v>1877.020483655401</v>
+        <v>1877.020483655402</v>
       </c>
       <c r="Q13" t="n">
         <v>1954.630779807916</v>
       </c>
       <c r="R13" t="n">
-        <v>1864.800322565444</v>
+        <v>1954.630779807916</v>
       </c>
       <c r="S13" t="n">
-        <v>1673.11443839227</v>
+        <v>1762.944895634743</v>
       </c>
       <c r="T13" t="n">
-        <v>1673.11443839227</v>
+        <v>1762.944895634743</v>
       </c>
       <c r="U13" t="n">
-        <v>1673.11443839227</v>
+        <v>1473.842028760386</v>
       </c>
       <c r="V13" t="n">
-        <v>1673.11443839227</v>
+        <v>1219.157540554499</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.697268355309</v>
+        <v>929.7403705175386</v>
       </c>
       <c r="X13" t="n">
-        <v>1383.697268355309</v>
+        <v>701.7508196195213</v>
       </c>
       <c r="Y13" t="n">
-        <v>1162.904689211779</v>
+        <v>480.9582404759911</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G14" t="n">
-        <v>380.275713812764</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160787</v>
+        <v>93.84834815160738</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507183</v>
+        <v>424.1437450015296</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074383975</v>
+        <v>893.7741287892104</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294995</v>
+        <v>1513.293909294984</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234029</v>
+        <v>2234.29847123402</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.583449151131</v>
+        <v>2971.583449151125</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610266</v>
+        <v>3654.445485610262</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5331,61 +5331,61 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C15" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D15" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E15" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G15" t="n">
         <v>178.7211392683895</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>241.496329903452</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K15" t="n">
-        <v>572.005072466809</v>
+        <v>572.0050724668106</v>
       </c>
       <c r="L15" t="n">
-        <v>734.6951238849225</v>
+        <v>1062.737405310561</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849225</v>
+        <v>1281.57159888511</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284256</v>
+        <v>1903.667562284445</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284448</v>
+        <v>1903.667562284445</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.251080710521</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S15" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U15" t="n">
         <v>2016.877442379908</v>
@@ -5397,7 +5397,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y15" t="n">
         <v>1111.876178449477</v>
@@ -5422,64 +5422,64 @@
         <v>549.8252074365082</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385979</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G16" t="n">
         <v>235.7210651131767</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411603</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="S16" t="n">
-        <v>2246.242309074615</v>
+        <v>2290.440356716413</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.242309074615</v>
+        <v>2070.761574430795</v>
       </c>
       <c r="U16" t="n">
-        <v>1957.166095389342</v>
+        <v>1781.685360745522</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.481607183455</v>
+        <v>1527.000872539635</v>
       </c>
       <c r="W16" t="n">
-        <v>1413.064437146494</v>
+        <v>1237.583702502674</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.439588189384</v>
+        <v>1237.583702502674</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.439588189384</v>
+        <v>1016.791123359144</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G17" t="n">
-        <v>380.275713812764</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160787</v>
+        <v>93.84834815160738</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507183</v>
+        <v>373.3442236507193</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074383975</v>
+        <v>842.9746074384002</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294995</v>
+        <v>1462.494387944173</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234029</v>
+        <v>2183.49894988321</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151131</v>
+        <v>2920.783927800314</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610266</v>
+        <v>3603.645964259451</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946798</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.534099052804</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5568,61 +5568,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
         <v>178.7211392683895</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>241.496329903452</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K18" t="n">
-        <v>572.005072466809</v>
+        <v>424.3570907149651</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310558</v>
+        <v>915.0894235587155</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.755759562683</v>
+        <v>1507.107777810842</v>
       </c>
       <c r="N18" t="n">
-        <v>2098.902632035783</v>
+        <v>2129.203741210177</v>
       </c>
       <c r="O18" t="n">
-        <v>2098.902632035783</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2518.486150461857</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2518.486150461857</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
         <v>2016.877442379908</v>
@@ -5634,7 +5634,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.876178449477</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.955059989089</v>
+        <v>1010.62339317273</v>
       </c>
       <c r="C19" t="n">
-        <v>394.0188770611821</v>
+        <v>841.6872102448232</v>
       </c>
       <c r="D19" t="n">
-        <v>243.9022376488464</v>
+        <v>691.5705708324874</v>
       </c>
       <c r="E19" t="n">
-        <v>95.98914406645329</v>
+        <v>543.6574772500943</v>
       </c>
       <c r="F19" t="n">
-        <v>93.84834815160706</v>
+        <v>396.7675297521839</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160706</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411603</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="S19" t="n">
-        <v>2246.242309074615</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="T19" t="n">
-        <v>2026.563526788997</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="U19" t="n">
-        <v>1737.487313103724</v>
+        <v>1957.166095389347</v>
       </c>
       <c r="V19" t="n">
-        <v>1482.802824897837</v>
+        <v>1702.48160718346</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.385654860876</v>
+        <v>1413.0644371465</v>
       </c>
       <c r="X19" t="n">
-        <v>965.3961039628589</v>
+        <v>1413.0644371465</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.6035248193288</v>
+        <v>1192.27185800297</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160626</v>
+        <v>93.8483481516067</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507175</v>
+        <v>373.344223650719</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074383968</v>
+        <v>842.9746074383997</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944168</v>
+        <v>1462.494387944173</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883202</v>
+        <v>2183.498949883209</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800304</v>
+        <v>2920.783927800314</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259439</v>
+        <v>3603.645964259451</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946784</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580352</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E21" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F21" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
         <v>178.7211392683895</v>
@@ -5826,40 +5826,40 @@
         <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>94.88738072612925</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>242.5353624779742</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K21" t="n">
-        <v>573.0441050413312</v>
+        <v>504.6016741736213</v>
       </c>
       <c r="L21" t="n">
-        <v>1063.77643788508</v>
+        <v>995.3340070173716</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.794792137205</v>
+        <v>1587.352361269498</v>
       </c>
       <c r="N21" t="n">
-        <v>1655.794792137205</v>
+        <v>1587.352361269498</v>
       </c>
       <c r="O21" t="n">
-        <v>2202.671267137397</v>
+        <v>2134.228836269691</v>
       </c>
       <c r="P21" t="n">
-        <v>2287.924876476612</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
-        <v>2518.486150461857</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5871,7 +5871,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>785.3178666362259</v>
+        <v>701.6638349513297</v>
       </c>
       <c r="C22" t="n">
-        <v>616.381683708319</v>
+        <v>532.7276520234228</v>
       </c>
       <c r="D22" t="n">
-        <v>466.2650442959833</v>
+        <v>382.6110126110871</v>
       </c>
       <c r="E22" t="n">
-        <v>318.3519507135902</v>
+        <v>382.6110126110871</v>
       </c>
       <c r="F22" t="n">
-        <v>318.3519507135902</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135902</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520205</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411603</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="S22" t="n">
-        <v>2429.412499335685</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="T22" t="n">
-        <v>2209.733717050067</v>
+        <v>2026.563526789002</v>
       </c>
       <c r="U22" t="n">
-        <v>1920.657503364794</v>
+        <v>1737.487313103729</v>
       </c>
       <c r="V22" t="n">
-        <v>1665.973015158907</v>
+        <v>1482.802824897842</v>
       </c>
       <c r="W22" t="n">
-        <v>1376.555845121946</v>
+        <v>1193.385654860882</v>
       </c>
       <c r="X22" t="n">
-        <v>1148.566294223929</v>
+        <v>965.3961039628643</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.9663314664656</v>
+        <v>744.6035248193342</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963582</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127647</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160843</v>
+        <v>93.84834815160718</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507171</v>
+        <v>373.3442236507193</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074383947</v>
+        <v>893.7741287892104</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944164</v>
+        <v>1513.293909294984</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234037</v>
+        <v>2234.29847123402</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151137</v>
+        <v>2971.583449151125</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610269</v>
+        <v>3654.445485610262</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297613</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.740996026521</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6042,61 +6042,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>461.0359474815751</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F24" t="n">
-        <v>314.5013895084601</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683896</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H24" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="I24" t="n">
-        <v>94.887380726129</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5353624779732</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K24" t="n">
-        <v>573.0441050413291</v>
+        <v>572.0050724668106</v>
       </c>
       <c r="L24" t="n">
-        <v>1063.776437885077</v>
+        <v>734.6951238849167</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.7947921372</v>
+        <v>734.6951238849167</v>
       </c>
       <c r="N24" t="n">
-        <v>1741.048401476423</v>
+        <v>1356.791087284252</v>
       </c>
       <c r="O24" t="n">
-        <v>2287.924876476613</v>
+        <v>1903.667562284445</v>
       </c>
       <c r="P24" t="n">
-        <v>2287.924876476613</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461858</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
         <v>2016.877442379908</v>
@@ -6108,7 +6108,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.876178449477</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.9550599890831</v>
+        <v>562.9550599890945</v>
       </c>
       <c r="C25" t="n">
-        <v>394.0188770611762</v>
+        <v>562.9550599890945</v>
       </c>
       <c r="D25" t="n">
-        <v>243.9022376488405</v>
+        <v>562.9550599890945</v>
       </c>
       <c r="E25" t="n">
-        <v>243.9022376488405</v>
+        <v>415.0419664067014</v>
       </c>
       <c r="F25" t="n">
-        <v>176.4792337520207</v>
+        <v>343.6934285774415</v>
       </c>
       <c r="G25" t="n">
-        <v>176.4792337520207</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520207</v>
+        <v>176.4792337520203</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411599</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117217</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948537</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139311</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931015</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946043</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782245</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335679</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335679</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074609</v>
+        <v>2246.242309074621</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526788991</v>
+        <v>2026.563526789002</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103718</v>
+        <v>1737.487313103729</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897831</v>
+        <v>1482.802824897842</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.38565486087</v>
+        <v>1193.385654860882</v>
       </c>
       <c r="X25" t="n">
-        <v>965.396103962853</v>
+        <v>965.3961039628643</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.6035248193228</v>
+        <v>744.6035248193342</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2223.769289033212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>620.8230468926974</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2084.430526663135</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1795.355300007332</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1540.670811801445</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1251.253641764485</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1023.264090866467</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>802.4715117229372</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647281</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949679</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>924.8344286397182</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1552.432392194325</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2104.342122433612</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2527.96527192868</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.96527192868</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>483.6514929544277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>336.7615454565173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>169.5654461713972</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>169.5654461713972</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,19 +6938,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,16 +6968,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7309,19 +7309,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,19 +7591,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7646,22 +7646,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
         <v>1896.176478190825</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,10 +7840,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928319</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,13 +8702,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>84.73334459831597</v>
+        <v>48.4837358798419</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782910131</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>51.31264782911728</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>51.31264782911728</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>51.31264782910151</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9416,10 +9416,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>51.31264782910159</v>
       </c>
       <c r="Q20" t="n">
-        <v>51.31264782911688</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>51.31264782910131</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>51.31264782913206</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.4685179072512</v>
+        <v>11.55740422226447</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>154.559536022648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.08241225715497</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>83.08241225715454</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.96433049205663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.96307779514005</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.8045767444093</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>43.75606716537453</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>13.2310549214975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>143.3016600672335</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>6.106052884549769</v>
       </c>
       <c r="H19" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.8045767444093</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>137.3216872126128</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440915</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.80069022220633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>78.67227416507961</v>
+        <v>74.78599557196395</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108425</v>
+        <v>67.18075159108373</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>39.52450498097789</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>73.62417772602086</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.274541026374422</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1096911.303451371</v>
+        <v>1096911.30345137</v>
       </c>
     </row>
     <row r="3">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236031.1785465855</v>
+        <v>236031.1785465853</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058924</v>
       </c>
       <c r="E2" t="n">
-        <v>255953.8194714465</v>
+        <v>255953.8194714466</v>
       </c>
       <c r="F2" t="n">
-        <v>262171.9675635316</v>
+        <v>262171.9675635318</v>
       </c>
       <c r="G2" t="n">
-        <v>262171.9675635316</v>
+        <v>262171.9675635317</v>
       </c>
       <c r="H2" t="n">
-        <v>262171.9675635316</v>
+        <v>262171.9675635318</v>
       </c>
       <c r="I2" t="n">
-        <v>262171.9675635316</v>
+        <v>262171.9675635317</v>
       </c>
       <c r="J2" t="n">
         <v>262322.6448992519</v>
@@ -26344,10 +26344,10 @@
         <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058923</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>720985.2833793791</v>
+        <v>720985.2833793794</v>
       </c>
       <c r="F3" t="n">
-        <v>212048.21265215</v>
+        <v>212048.2126521521</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-9.006629355765958e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>183669.0093792289</v>
+        <v>183669.0093792242</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901373</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363191</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146960.3591674191</v>
+        <v>146960.3591674187</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>23899.76556585633</v>
+        <v>23899.76556585629</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855482</v>
+        <v>5781.971894855259</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855482</v>
+        <v>5781.971894855263</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855476</v>
+        <v>5781.971894855264</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855687</v>
+        <v>5781.97189485526</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670414</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670412</v>
+        <v>5067.592601670463</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670394</v>
       </c>
       <c r="N4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476393</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476393</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>95081.87666815525</v>
@@ -26485,10 +26485,10 @@
         <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572384</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572384</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583756.1378987875</v>
+        <v>-583993.1178730896</v>
       </c>
       <c r="C6" t="n">
-        <v>-17085.00878524894</v>
+        <v>-17085.00878524876</v>
       </c>
       <c r="D6" t="n">
-        <v>-17085.00878524873</v>
+        <v>-17085.0087852486</v>
       </c>
       <c r="E6" t="n">
-        <v>-584013.1061419442</v>
+        <v>-584096.8350322094</v>
       </c>
       <c r="F6" t="n">
-        <v>-56588.2564407123</v>
+        <v>-56624.15342257843</v>
       </c>
       <c r="G6" t="n">
-        <v>155459.9562114376</v>
+        <v>155424.0592295736</v>
       </c>
       <c r="H6" t="n">
-        <v>155459.9562114377</v>
+        <v>155424.0592295737</v>
       </c>
       <c r="I6" t="n">
-        <v>155459.9562114401</v>
+        <v>155424.0592295736</v>
       </c>
       <c r="J6" t="n">
-        <v>-27536.48690555447</v>
+        <v>-27571.22483098549</v>
       </c>
       <c r="K6" t="n">
-        <v>156132.5224736743</v>
+        <v>156097.7845482387</v>
       </c>
       <c r="L6" t="n">
-        <v>156132.5224736746</v>
+        <v>156097.7845482387</v>
       </c>
       <c r="M6" t="n">
-        <v>31825.31108353716</v>
+        <v>31790.57315810153</v>
       </c>
       <c r="N6" t="n">
-        <v>131188.2894935811</v>
+        <v>131188.2894935813</v>
       </c>
       <c r="O6" t="n">
-        <v>150616.0074872131</v>
+        <v>150616.007487213</v>
       </c>
       <c r="P6" t="n">
         <v>150616.0074872129</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716377</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762112</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
-        <v>268.2643481230825</v>
+        <v>268.2643481230853</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,25 +26978,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.901059792871004e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.934451625296788</v>
+        <v>9.934451625290421</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>673.8912089591159</v>
+        <v>673.8912089591161</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>353.7941606247417</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.41947256689417</v>
+        <v>89.80115265030449</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>80.34493109267356</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>235.2758635302564</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>243.3502225727917</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>184.5335459742204</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>305.0634482843961</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>393.7165865800093</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>95.96848760647134</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04372617964764913</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-9.496150991986756e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830404</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364232</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R14" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540894</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735807</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848206</v>
+        <v>471.6886536848217</v>
       </c>
       <c r="L15" t="n">
-        <v>302.8877650506959</v>
+        <v>634.2436048745715</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>363.1786738963101</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426179</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982433</v>
+        <v>557.7961431982445</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286938</v>
+        <v>372.8719498286947</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273326</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N16" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830404</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364232</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R17" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540894</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735807</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848206</v>
+        <v>471.6886536848217</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745701</v>
+        <v>634.2436048745715</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504274</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N18" t="n">
-        <v>579.9749166016162</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>571.4938338238273</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982433</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>181.3625385436707</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273326</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N19" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830404</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364232</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R20" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540894</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530527</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735807</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848206</v>
+        <v>403.6044129846305</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745701</v>
+        <v>634.2436048745715</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504274</v>
+        <v>740.132371550429</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426179</v>
+        <v>694.9967242426194</v>
       </c>
       <c r="P21" t="n">
-        <v>220.0891643226278</v>
+        <v>557.7961431982445</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286938</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436707</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273326</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N22" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377391</v>
+        <v>5.459461502377417</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122248</v>
+        <v>55.91171011122274</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704046</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874036</v>
+        <v>463.3649706874057</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830387</v>
+        <v>694.463976083042</v>
       </c>
       <c r="L23" t="n">
-        <v>861.543971036421</v>
+        <v>861.543971036425</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293248</v>
+        <v>958.6336695293294</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229548</v>
+        <v>974.1453645229593</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086895</v>
+        <v>919.8578442086938</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687475</v>
+        <v>785.0773883687511</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.560423314857</v>
+        <v>589.5604233148597</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987141</v>
+        <v>342.9428985987157</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854249</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665704</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901912</v>
+        <v>0.4367569201901933</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540887</v>
+        <v>2.9210694255409</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088173</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530525</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.97700217358</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848195</v>
+        <v>471.6886536848217</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745685</v>
+        <v>302.8877650506885</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504254</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>217.4564689916396</v>
+        <v>759.7214730927626</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426162</v>
+        <v>694.9967242426194</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982445</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286929</v>
+        <v>372.8719498286947</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436702</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862126</v>
+        <v>54.25758340862151</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821085</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013742</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291827</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548554</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I25" t="n">
-        <v>73.6458981828488</v>
+        <v>73.64589818284914</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273322</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900868</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640596</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574264998</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416851</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465941</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282405</v>
+        <v>296.1865264282419</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561729</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860852</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851302</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551962</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704635</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760385</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.0290152085043</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>270.9716933356906</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>253.1045048722855</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>255.6522884173741</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,13 +34454,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>489.3502824033309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932195</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>592.786345486535</v>
+        <v>556.536736768061</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607184</v>
+        <v>333.6317139898208</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L14" t="n">
-        <v>677.0902038955531</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020545</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263662</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O14" t="n">
-        <v>689.759632787005</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134798</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845829</v>
+        <v>127.3573607845836</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506914</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104616</v>
+        <v>333.8472147104627</v>
       </c>
       <c r="L15" t="n">
-        <v>164.3333852708217</v>
+        <v>495.6892250946973</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>221.0446399742918</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981735</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>423.821735783913</v>
+        <v>423.8217357839143</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426723</v>
+        <v>232.8901757426731</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243766</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L17" t="n">
-        <v>677.0902038955531</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020545</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263662</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O17" t="n">
-        <v>689.759632787005</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134798</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845829</v>
+        <v>178.6700086136851</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.139375506914</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104616</v>
+        <v>333.8472147104627</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946959</v>
+        <v>495.6892250946973</v>
       </c>
       <c r="M18" t="n">
-        <v>597.998337628409</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N18" t="n">
-        <v>448.6332045182829</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>428.897589379383</v>
       </c>
       <c r="P18" t="n">
-        <v>423.821735783913</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.68303457970671</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243766</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380614</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664359</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020545</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263662</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O20" t="n">
-        <v>689.759632787005</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134798</v>
+        <v>605.1570404425833</v>
       </c>
       <c r="Q20" t="n">
-        <v>418.5673812695258</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845829</v>
+        <v>127.3573607845836</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853052737</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.139375506914</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104616</v>
+        <v>265.7629740102715</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946959</v>
+        <v>495.6892250946973</v>
       </c>
       <c r="M21" t="n">
-        <v>597.998337628409</v>
+        <v>597.9983376284106</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981735</v>
+        <v>552.400479798175</v>
       </c>
       <c r="P21" t="n">
-        <v>86.11475690829754</v>
+        <v>423.8217357839143</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426723</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.68303457970671</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243766</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607173</v>
+        <v>282.3190661607194</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380581</v>
+        <v>525.6867728671627</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664338</v>
+        <v>625.7775560664377</v>
       </c>
       <c r="M23" t="n">
-        <v>779.6000841311842</v>
+        <v>728.2874363020567</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263639</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870027</v>
+        <v>689.759632787007</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613478</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404074</v>
+        <v>367.2547334404102</v>
       </c>
       <c r="R23" t="n">
-        <v>127.357360784582</v>
+        <v>127.3573607845836</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853052481</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069134</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104605</v>
+        <v>333.8472147104627</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946943</v>
+        <v>164.3333852708143</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284072</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>86.11475690830626</v>
+        <v>628.3797610094293</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981718</v>
+        <v>552.400479798175</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>423.8217357839143</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426714</v>
+        <v>232.8901757426731</v>
       </c>
       <c r="R24" t="n">
-        <v>35.68303457970626</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211065941</v>
+        <v>79.77992211066024</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642039</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243757</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883403</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209137</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606338</v>
+        <v>370.7297545606353</v>
       </c>
       <c r="P25" t="n">
-        <v>293.465085693134</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044786</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193518</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8925903961643</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.34951124454038</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>132.4173135558164</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>114.5501250924114</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,13 +38102,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>347.2162484813126</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
